--- a/outputs/AI_v_Student_results.xlsx
+++ b/outputs/AI_v_Student_results.xlsx
@@ -384,7 +384,7 @@
       <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="7315200" cy="5486400"/>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="10972800" cy="8229600"/>
     <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
       <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
         <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
@@ -419,7 +419,7 @@
       <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="7315200" cy="5486400"/>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="10972800" cy="8229600"/>
     <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
       <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
         <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
@@ -454,7 +454,7 @@
       <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="7315200" cy="5486400"/>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="10972800" cy="8229600"/>
     <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
       <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
         <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
@@ -489,7 +489,7 @@
       <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="7315200" cy="5486400"/>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="10972800" cy="8229600"/>
     <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
       <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
         <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
@@ -524,7 +524,7 @@
       <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="7315200" cy="5486400"/>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="10972800" cy="8229600"/>
     <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
       <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
         <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
@@ -559,7 +559,7 @@
       <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="7315200" cy="5486400"/>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="10972800" cy="8229600"/>
     <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
       <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
         <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
